--- a/patient_data/patient_79.xlsx
+++ b/patient_data/patient_79.xlsx
@@ -874,19 +874,19 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -951,19 +951,19 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1025,16 +1025,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1102,16 +1102,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1143,19 +1143,19 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1179,16 +1179,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1220,19 +1220,19 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1297,19 +1297,19 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1374,13 +1374,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>1</v>
@@ -1389,10 +1389,10 @@
         <v>1</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -1448,10 +1448,10 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1460,16 +1460,16 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -1525,10 +1525,10 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -1537,13 +1537,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15" t="n">
         <v>1</v>
@@ -1602,10 +1602,10 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1614,13 +1614,13 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16" t="n">
         <v>1</v>
@@ -1679,10 +1679,10 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1691,16 +1691,16 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -1756,28 +1756,28 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -1833,13 +1833,13 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1910,13 +1910,13 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1987,13 +1987,13 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
